--- a/auto-cite/references.xlsx
+++ b/auto-cite/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phupham/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phupham/Development/research/ideaslab.github.io/auto-cite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3412982-E1C9-E24F-A8B8-0C05E6CEFC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095097FD-98A7-E242-9170-5BBE26E34344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="243">
   <si>
     <t>Title</t>
   </si>
@@ -709,22 +709,46 @@
     <t>10.48550/arXiv.1810.03965</t>
   </si>
   <si>
+    <t>10.48550/arXiv.1707.09100</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2011.04816</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.1912.06874</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2111.02964</t>
+  </si>
+  <si>
+    <t>DroNeRF: Real-time Multi-agent Drone Pose Optimization for Computing Neural Radiance Fields</t>
+  </si>
+  <si>
+    <t>SG-LSTM: Social Group LSTM for Robot Navigation Through Dense Crowds</t>
+  </si>
+  <si>
+    <t>Pose optimization, Neural radiance fields, Multiagent systems</t>
+  </si>
+  <si>
+    <t>Robot navigation, Multiagent systems, Affective Computing</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.04320</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2303.04322</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2303.04322</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2303.04320</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2011.08682</t>
+  </si>
+  <si>
     <t>10.48550/arXiv.2011.08722</t>
-  </si>
-  <si>
-    <t>10.48550/arXiv.2011.08682</t>
-  </si>
-  <si>
-    <t>10.48550/arXiv.1707.09100</t>
-  </si>
-  <si>
-    <t>10.48550/arXiv.2011.04816</t>
-  </si>
-  <si>
-    <t>10.48550/arXiv.1912.06874</t>
-  </si>
-  <si>
-    <t>10.48550/arXiv.2111.02964</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1862,7 +1886,7 @@
         <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D53" t="s">
         <v>211</v>
@@ -1988,7 +2012,7 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D62" t="s">
         <v>209</v>
@@ -2016,7 +2040,7 @@
         <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
         <v>216</v>
@@ -2044,7 +2068,7 @@
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D66" t="s">
         <v>198</v>
@@ -2100,7 +2124,7 @@
         <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
         <v>216</v>
@@ -2142,10 +2166,38 @@
         <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/auto-cite/references.xlsx
+++ b/auto-cite/references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phupham/Development/research/ideaslab.github.io/auto-cite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095097FD-98A7-E242-9170-5BBE26E34344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC882F-2980-6E4B-91B5-C3A0A54D9871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="279">
   <si>
     <t>Title</t>
   </si>
@@ -749,13 +749,121 @@
   </si>
   <si>
     <t>10.48550/arXiv.2011.08722</t>
+  </si>
+  <si>
+    <t>Crowd-Aware Multi-Agent Pathfinding With Boosted Curriculum Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2309.10275</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2309.10275</t>
+  </si>
+  <si>
+    <t>Multiagent systems, Path planning, Robot navigation</t>
+  </si>
+  <si>
+    <t>DREAM: Decentralized Reinforcement Learning for Exploration and Efficient Energy Management in Multi-Robot Systems</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2309.17433</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2309.17433</t>
+  </si>
+  <si>
+    <t>Multiagent systems, Path planning, Robot navigation, Resource optimization</t>
+  </si>
+  <si>
+    <t>RL Dreams: Policy Gradient Optimization for Score Distillation based 3D Generation</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2312.04806</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2312.04806</t>
+  </si>
+  <si>
+    <t>3D reconstruction, 3D synthesis, generative modeling</t>
+  </si>
+  <si>
+    <t>PaCMO: Partner Dependent Human Motion Generation in Dyadic Human Activity using Neural Operators</t>
+  </si>
+  <si>
+    <t>arxiv.org/pdf/2211.16210.pdf</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2211.16210</t>
+  </si>
+  <si>
+    <t>Pose Optimization, 3D Humans, Neural Operator</t>
+  </si>
+  <si>
+    <t>AdaFNIO: Adaptive Fourier Neural Interpolation Operator for video frame interpolation</t>
+  </si>
+  <si>
+    <t>arxiv.org/pdf/2211.10791.pdf</t>
+  </si>
+  <si>
+    <t>10.48550/arXiv.2211.10791</t>
+  </si>
+  <si>
+    <t>Computer Vision, Neural Operator</t>
+  </si>
+  <si>
+    <t>Trajectory Prediction for Robot Navigation using Flow-Guided Markov Neural Operator</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2309.09137</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2309.09137</t>
+  </si>
+  <si>
+    <t>Robot navigation, Neural Operator, Stochastic modelling</t>
+  </si>
+  <si>
+    <t>Graph-based Decentralized Task Allocation for Multi-Robot Target Localization</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2309.08896</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2309.08896</t>
+  </si>
+  <si>
+    <t>Robot Navigation, Multiagent Systems, Neural Operator</t>
+  </si>
+  <si>
+    <t>AffectEcho: Speaker Independent and Language-Agnostic Emotion and Affect Transfer for Speech Synthesis</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2308.08577</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2308.08577</t>
+  </si>
+  <si>
+    <t>Speech Synthesis, Speech Affect modelling, Neural Operator</t>
+  </si>
+  <si>
+    <t>Neural Operator: Is data all you need to model the world? An insight into the impact of Physics Informed Machine Learning</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.13331</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2301.13331</t>
+  </si>
+  <si>
+    <t>Neural Operator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -770,6 +878,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -793,9 +907,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1136,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2046,7 +2161,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -2060,7 +2175,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -2074,7 +2189,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -2088,7 +2203,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -2102,7 +2217,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -2116,7 +2231,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -2130,7 +2245,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -2144,7 +2259,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -2158,7 +2273,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -2172,7 +2287,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>233</v>
       </c>
@@ -2186,7 +2301,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>234</v>
       </c>
@@ -2199,6 +2314,330 @@
       <c r="D75" t="s">
         <v>236</v>
       </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C73">
@@ -2206,9 +2645,24 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{743EDAB9-BAE1-48F9-A435-E1AD41A2B839}"/>
+    <hyperlink ref="B76" r:id="rId2" xr:uid="{D8791B58-8915-514D-9EF9-12AD4496AFCA}"/>
+    <hyperlink ref="B77" r:id="rId3" xr:uid="{3446F5BF-923D-9B48-BB0D-E31F1F96FA9F}"/>
+    <hyperlink ref="B78" r:id="rId4" xr:uid="{2FD67736-821C-C74B-964F-9C7E33048C8D}"/>
+    <hyperlink ref="B79" r:id="rId5" display="https://arxiv.org/pdf/2211.16210.pdf" xr:uid="{C77928D1-8DBF-A648-897C-CEF494A68EC2}"/>
+    <hyperlink ref="C79" r:id="rId6" display="https://doi.org/10.48550/arXiv.2211.16210" xr:uid="{D7534F37-9003-C142-9637-2B4088955D7B}"/>
+    <hyperlink ref="B80" r:id="rId7" display="https://arxiv.org/pdf/2211.10791.pdf" xr:uid="{AFBE4A2A-5F90-E146-965F-BBDEB29172D0}"/>
+    <hyperlink ref="C80" r:id="rId8" display="https://doi.org/10.48550/arXiv.2211.10791" xr:uid="{6FFA46BB-4AA0-734C-ADA4-05546609A993}"/>
+    <hyperlink ref="B81" r:id="rId9" xr:uid="{BA3E7CC2-3E7E-7147-B10F-76426427C8C8}"/>
+    <hyperlink ref="C81" r:id="rId10" xr:uid="{679B330C-602F-B642-8659-14B49B972718}"/>
+    <hyperlink ref="B82" r:id="rId11" xr:uid="{D0C83090-3954-C34E-9C42-0686DA503E3D}"/>
+    <hyperlink ref="C82" r:id="rId12" xr:uid="{FD730DC0-571F-4044-A655-ED8BCF4A85F0}"/>
+    <hyperlink ref="B83" r:id="rId13" xr:uid="{BF76C7B0-DB5F-9048-B255-433655935B34}"/>
+    <hyperlink ref="C83" r:id="rId14" xr:uid="{72FA4D0A-206D-134C-8CE0-6980026D4FAF}"/>
+    <hyperlink ref="B84" r:id="rId15" xr:uid="{DC00E267-9C8E-0A4C-8049-31C52BC8A679}"/>
+    <hyperlink ref="C84" r:id="rId16" xr:uid="{D318E4D6-5111-294D-8C89-2D97D22BADC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A2 B1:C2" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/auto-cite/references.xlsx
+++ b/auto-cite/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phupham/Development/research/ideaslab.github.io/auto-cite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC882F-2980-6E4B-91B5-C3A0A54D9871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B888F1BF-DB47-474E-BC7F-90E28169A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,9 +718,6 @@
     <t>10.48550/arXiv.1912.06874</t>
   </si>
   <si>
-    <t>10.48550/arXiv.2111.02964</t>
-  </si>
-  <si>
     <t>DroNeRF: Real-time Multi-agent Drone Pose Optimization for Computing Neural Radiance Fields</t>
   </si>
   <si>
@@ -739,12 +736,6 @@
     <t>https://arxiv.org/abs/2303.04322</t>
   </si>
   <si>
-    <t>10.48550/arXiv.2303.04322</t>
-  </si>
-  <si>
-    <t>10.48550/arXiv.2303.04320</t>
-  </si>
-  <si>
     <t>10.48550/arXiv.2011.08682</t>
   </si>
   <si>
@@ -757,9 +748,6 @@
     <t>https://arxiv.org/abs/2309.10275</t>
   </si>
   <si>
-    <t>10.48550/arXiv.2309.10275</t>
-  </si>
-  <si>
     <t>Multiagent systems, Path planning, Robot navigation</t>
   </si>
   <si>
@@ -769,9 +757,6 @@
     <t>https://arxiv.org/abs/2309.17433</t>
   </si>
   <si>
-    <t>10.48550/arXiv.2309.17433</t>
-  </si>
-  <si>
     <t>Multiagent systems, Path planning, Robot navigation, Resource optimization</t>
   </si>
   <si>
@@ -781,9 +766,6 @@
     <t>https://arxiv.org/abs/2312.04806</t>
   </si>
   <si>
-    <t>10.48550/arXiv.2312.04806</t>
-  </si>
-  <si>
     <t>3D reconstruction, 3D synthesis, generative modeling</t>
   </si>
   <si>
@@ -793,9 +775,6 @@
     <t>arxiv.org/pdf/2211.16210.pdf</t>
   </si>
   <si>
-    <t>10.48550/arXiv.2211.16210</t>
-  </si>
-  <si>
     <t>Pose Optimization, 3D Humans, Neural Operator</t>
   </si>
   <si>
@@ -805,9 +784,6 @@
     <t>arxiv.org/pdf/2211.10791.pdf</t>
   </si>
   <si>
-    <t>10.48550/arXiv.2211.10791</t>
-  </si>
-  <si>
     <t>Computer Vision, Neural Operator</t>
   </si>
   <si>
@@ -857,6 +833,30 @@
   </si>
   <si>
     <t>Neural Operator</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2111.02964</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2303.04322</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2303.04320</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2309.10275</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2309.17433</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2312.04806</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2211.16210</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.48550/arXiv.2211.10791</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:Z84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2001,7 +2001,7 @@
         <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D53" t="s">
         <v>211</v>
@@ -2127,7 +2127,7 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D62" t="s">
         <v>209</v>
@@ -2274,59 +2274,125 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D73" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B74" t="s">
-        <v>238</v>
-      </c>
-      <c r="C74" t="s">
-        <v>239</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B75" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>234</v>
-      </c>
-      <c r="B75" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" t="s">
-        <v>240</v>
-      </c>
-      <c r="D75" t="s">
-        <v>236</v>
-      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2353,16 +2419,16 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2389,16 +2455,16 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2425,16 +2491,16 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2461,16 +2527,16 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2497,16 +2563,16 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2533,16 +2599,16 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2569,16 +2635,16 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -2605,16 +2671,16 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -2645,24 +2711,33 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{743EDAB9-BAE1-48F9-A435-E1AD41A2B839}"/>
-    <hyperlink ref="B76" r:id="rId2" xr:uid="{D8791B58-8915-514D-9EF9-12AD4496AFCA}"/>
-    <hyperlink ref="B77" r:id="rId3" xr:uid="{3446F5BF-923D-9B48-BB0D-E31F1F96FA9F}"/>
-    <hyperlink ref="B78" r:id="rId4" xr:uid="{2FD67736-821C-C74B-964F-9C7E33048C8D}"/>
-    <hyperlink ref="B79" r:id="rId5" display="https://arxiv.org/pdf/2211.16210.pdf" xr:uid="{C77928D1-8DBF-A648-897C-CEF494A68EC2}"/>
-    <hyperlink ref="C79" r:id="rId6" display="https://doi.org/10.48550/arXiv.2211.16210" xr:uid="{D7534F37-9003-C142-9637-2B4088955D7B}"/>
-    <hyperlink ref="B80" r:id="rId7" display="https://arxiv.org/pdf/2211.10791.pdf" xr:uid="{AFBE4A2A-5F90-E146-965F-BBDEB29172D0}"/>
-    <hyperlink ref="C80" r:id="rId8" display="https://doi.org/10.48550/arXiv.2211.10791" xr:uid="{6FFA46BB-4AA0-734C-ADA4-05546609A993}"/>
-    <hyperlink ref="B81" r:id="rId9" xr:uid="{BA3E7CC2-3E7E-7147-B10F-76426427C8C8}"/>
-    <hyperlink ref="C81" r:id="rId10" xr:uid="{679B330C-602F-B642-8659-14B49B972718}"/>
-    <hyperlink ref="B82" r:id="rId11" xr:uid="{D0C83090-3954-C34E-9C42-0686DA503E3D}"/>
-    <hyperlink ref="C82" r:id="rId12" xr:uid="{FD730DC0-571F-4044-A655-ED8BCF4A85F0}"/>
-    <hyperlink ref="B83" r:id="rId13" xr:uid="{BF76C7B0-DB5F-9048-B255-433655935B34}"/>
-    <hyperlink ref="C83" r:id="rId14" xr:uid="{72FA4D0A-206D-134C-8CE0-6980026D4FAF}"/>
-    <hyperlink ref="B84" r:id="rId15" xr:uid="{DC00E267-9C8E-0A4C-8049-31C52BC8A679}"/>
-    <hyperlink ref="C84" r:id="rId16" xr:uid="{D318E4D6-5111-294D-8C89-2D97D22BADC1}"/>
+    <hyperlink ref="B73" r:id="rId2" xr:uid="{BCE4B95A-3FA3-2843-8715-F6FD2E96BF9F}"/>
+    <hyperlink ref="C73" r:id="rId3" xr:uid="{2572801E-2988-4B4E-9121-E63A41055112}"/>
+    <hyperlink ref="B74" r:id="rId4" xr:uid="{9BB4F1AF-1DEA-434A-8FDB-0A2FCED8C91E}"/>
+    <hyperlink ref="C74" r:id="rId5" xr:uid="{D4C97630-57C1-4C46-8012-6E7609B3A2C0}"/>
+    <hyperlink ref="B75" r:id="rId6" xr:uid="{A7907AFF-3144-1E43-A77D-9611046C418A}"/>
+    <hyperlink ref="C75" r:id="rId7" xr:uid="{99D48156-280D-114A-A712-C8AEF68CC5CD}"/>
+    <hyperlink ref="B76" r:id="rId8" xr:uid="{5DAA8A19-38B6-0347-9920-B0F6C4435896}"/>
+    <hyperlink ref="C76" r:id="rId9" xr:uid="{9FD76733-936F-F34A-BB12-82D4F4ECE24A}"/>
+    <hyperlink ref="B77" r:id="rId10" xr:uid="{2E7BE944-7688-E84A-886E-AFD6E121FD2D}"/>
+    <hyperlink ref="C77" r:id="rId11" xr:uid="{E88378E9-9FE0-2E45-8480-4B452E62DC02}"/>
+    <hyperlink ref="B78" r:id="rId12" xr:uid="{68A333BD-6C2D-634D-8352-EAC35FADEF2B}"/>
+    <hyperlink ref="C78" r:id="rId13" xr:uid="{88C9F689-5AE0-B44F-B081-1FEC1A07982D}"/>
+    <hyperlink ref="B79" r:id="rId14" display="https://arxiv.org/pdf/2211.16210.pdf" xr:uid="{ACAAB8D2-8A19-A541-B33F-BAC7CA719B6B}"/>
+    <hyperlink ref="C79" r:id="rId15" xr:uid="{1D3A9AEC-B2E7-BA45-9D6F-C1CF72869A0B}"/>
+    <hyperlink ref="B80" r:id="rId16" display="https://arxiv.org/pdf/2211.10791.pdf" xr:uid="{F74E9ED5-6183-744E-98FF-B89BBDE4DF38}"/>
+    <hyperlink ref="C80" r:id="rId17" xr:uid="{E2A1FB02-AD32-A646-BB0F-58EA4755A83B}"/>
+    <hyperlink ref="B81" r:id="rId18" xr:uid="{55EB3DBC-9283-9045-83F0-E07B1002E336}"/>
+    <hyperlink ref="C81" r:id="rId19" xr:uid="{4ACE3AA4-26E8-A546-9607-A44DC6686401}"/>
+    <hyperlink ref="B82" r:id="rId20" xr:uid="{120F8637-ED1B-E74D-9FD7-7F711C0EE7A3}"/>
+    <hyperlink ref="C82" r:id="rId21" xr:uid="{672A5156-47D8-8E4B-B616-DC38C7ADD2EB}"/>
+    <hyperlink ref="B83" r:id="rId22" xr:uid="{7011151F-44C1-964C-9E5A-E8C8E145EF3E}"/>
+    <hyperlink ref="C83" r:id="rId23" xr:uid="{212061A3-365C-9D46-B951-BBC0DBB44085}"/>
+    <hyperlink ref="B84" r:id="rId24" xr:uid="{412EE8B6-656C-EA40-A7FB-84F1D96CF523}"/>
+    <hyperlink ref="C84" r:id="rId25" xr:uid="{24E603E9-D079-D046-B0E8-4F145576823B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <ignoredErrors>
     <ignoredError sqref="A1:A2 B1:C2" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/auto-cite/references.xlsx
+++ b/auto-cite/references.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phupham/Development/research/ideaslab.github.io/auto-cite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B888F1BF-DB47-474E-BC7F-90E28169A3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01101A08-BE36-4340-8AC0-A39E3018D26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,9 +727,6 @@
     <t>Pose optimization, Neural radiance fields, Multiagent systems</t>
   </si>
   <si>
-    <t>Robot navigation, Multiagent systems, Affective Computing</t>
-  </si>
-  <si>
     <t>https://arxiv.org/abs/2303.04320</t>
   </si>
   <si>
@@ -748,27 +745,18 @@
     <t>https://arxiv.org/abs/2309.10275</t>
   </si>
   <si>
-    <t>Multiagent systems, Path planning, Robot navigation</t>
-  </si>
-  <si>
     <t>DREAM: Decentralized Reinforcement Learning for Exploration and Efficient Energy Management in Multi-Robot Systems</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/2309.17433</t>
   </si>
   <si>
-    <t>Multiagent systems, Path planning, Robot navigation, Resource optimization</t>
-  </si>
-  <si>
     <t>RL Dreams: Policy Gradient Optimization for Score Distillation based 3D Generation</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/2312.04806</t>
   </si>
   <si>
-    <t>3D reconstruction, 3D synthesis, generative modeling</t>
-  </si>
-  <si>
     <t>PaCMO: Partner Dependent Human Motion Generation in Dyadic Human Activity using Neural Operators</t>
   </si>
   <si>
@@ -796,9 +784,6 @@
     <t>https://doi.org/10.48550/arXiv.2309.09137</t>
   </si>
   <si>
-    <t>Robot navigation, Neural Operator, Stochastic modelling</t>
-  </si>
-  <si>
     <t>Graph-based Decentralized Task Allocation for Multi-Robot Target Localization</t>
   </si>
   <si>
@@ -808,9 +793,6 @@
     <t>https://doi.org/10.48550/arXiv.2309.08896</t>
   </si>
   <si>
-    <t>Robot Navigation, Multiagent Systems, Neural Operator</t>
-  </si>
-  <si>
     <t>AffectEcho: Speaker Independent and Language-Agnostic Emotion and Affect Transfer for Speech Synthesis</t>
   </si>
   <si>
@@ -857,6 +839,24 @@
   </si>
   <si>
     <t>https://doi.org/10.48550/arXiv.2211.10791</t>
+  </si>
+  <si>
+    <t>Robot navigation, Multiagent systems, Affective Computing, Motion and Path Planning</t>
+  </si>
+  <si>
+    <t>Multiagent systems, Path planning, Robot navigation, Motion and Path Planning</t>
+  </si>
+  <si>
+    <t>Multiagent systems, Path planning, Robot navigation, Resource optimization, Motion and Path Planning</t>
+  </si>
+  <si>
+    <t>3D reconstruction, 3D synthesis, Generative modeling</t>
+  </si>
+  <si>
+    <t>Robot navigation, Neural Operator, Stochastic modelling, Motion and Path Planning</t>
+  </si>
+  <si>
+    <t>Robot Navigation, Multiagent Systems, Neural Operator, Motion and Path Planning</t>
   </si>
 </sst>
 </file>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:Z84"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2001,7 +2001,7 @@
         <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" t="s">
         <v>211</v>
@@ -2127,7 +2127,7 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
         <v>209</v>
@@ -2281,7 +2281,7 @@
         <v>45</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>198</v>
@@ -2314,10 +2314,10 @@
         <v>232</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>234</v>
@@ -2350,13 +2350,13 @@
         <v>233</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="C76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2419,16 +2419,16 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2455,16 +2455,16 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2491,16 +2491,16 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2527,16 +2527,16 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2563,16 +2563,16 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -2599,16 +2599,16 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -2635,16 +2635,16 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -2671,16 +2671,16 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
